--- a/biology/Écologie/Isodar/Isodar.xlsx
+++ b/biology/Écologie/Isodar/Isodar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La théorie de l'isodar est une théorie d'écologie évolutive proposée par Douglas W. Morris dans les années 1980. Cette dernière souligne l'importance de l'abondance et donc de la compétition entre les membres d'une même espèce dans le processus de sélection d’habitat.
-Étymologiquement, le nom isodar provient de la fusion de « iso », à savoir « le même » en latin, et de « dar », trois premières lettres du nom de Charles Darwin[1].
+Étymologiquement, le nom isodar provient de la fusion de « iso », à savoir « le même » en latin, et de « dar », trois premières lettres du nom de Charles Darwin.
 </t>
         </is>
       </c>
